--- a/Test_Metrics_Report.xlsx
+++ b/Test_Metrics_Report.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{6BE69F94-80E6-4910-9635-85D5D344FF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F00DC85C-899A-45E0-B2CF-4B77DD596A9E}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="8_{6BE69F94-80E6-4910-9635-85D5D344FF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E01BB2C2-3D38-4084-9BFA-AE16202D2CB2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CDF67B7-6A36-4AA6-A051-AE130BB5BD9A}"/>
   </bookViews>
   <sheets>
-    <sheet name="DEFECT METRICS" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Execution Summary sheet " sheetId="2" r:id="rId1"/>
+    <sheet name="Defect Metrics" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,52 +37,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>DEFECT METRICS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+  <si>
+    <t>Requirement Coverage</t>
   </si>
   <si>
     <t>Defect Density:</t>
   </si>
   <si>
-    <t>Defect Density = Total Defects / Total Test Cases</t>
-  </si>
-  <si>
-    <t>Defect Density = 6 / 85 = 0.07</t>
-  </si>
-  <si>
     <t xml:space="preserve">Defect Leakage </t>
   </si>
   <si>
     <t>Defects found in UAT / Total defects</t>
   </si>
   <si>
-    <t>Defect Leakage = 0/6 =0%</t>
-  </si>
-  <si>
     <t>Test Case Pass Percentage</t>
   </si>
   <si>
     <t xml:space="preserve">  Pass %= (Passed Test Cases/Total Test Cases)* 100</t>
   </si>
   <si>
-    <t>Pass% =(79/85)*100=92.9%</t>
-  </si>
-  <si>
     <t>Fail%=(Failed Test Cases/Total Test Cases)*100</t>
   </si>
   <si>
-    <t>Fail%=(6/85)*100=7.1%</t>
-  </si>
-  <si>
     <t>Test Case Fail Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Tested Requirements / Total Requirements) × 100</t>
+  </si>
+  <si>
+    <t>Requirement Coverage=100%</t>
+  </si>
+  <si>
+    <t>Total Test Cases = Number of test cases designed</t>
+  </si>
+  <si>
+    <t>Executed Test Cases</t>
+  </si>
+  <si>
+    <t>Executed Test Cases = Pass + Fail</t>
+  </si>
+  <si>
+    <t>66+5=71</t>
+  </si>
+  <si>
+    <t>Fail%=(5/85)*100=7.4%</t>
+  </si>
+  <si>
+    <t>Blocked / Not Executed (if applicable)</t>
+  </si>
+  <si>
+    <t>Not Executed % = (Not Executed / Total) × 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Execution Summary </t>
+  </si>
+  <si>
+    <t>Login (12) + Registration (10) + Search (7) + Cart (8) + Checkout (9) + Payment (9) + Order (7) + Non-Functional (9)
+ Total = 71 test cases</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total Test Cases</t>
+  </si>
+  <si>
+    <t>Executed</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
+    <t>Pass %</t>
+  </si>
+  <si>
+    <t>Fail %</t>
+  </si>
+  <si>
+    <t>Total Defects</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = Count of defects raised</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Reopened</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Pass% =(66/71))*100=92.95%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Total − Executed</t>
+  </si>
+  <si>
+    <t>85-71=14</t>
+  </si>
+  <si>
+    <t>Defect Density = Total Defects / Executed Test Cases</t>
+  </si>
+  <si>
+    <t>Defect Density = 6 / 71 = 0.084</t>
+  </si>
+  <si>
+    <t>Defect Leakage = 0% (No UAT phase in this project)</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>All defects are Open as
+ this is a test execution phase without development fixes.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +182,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,8 +223,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,67 +580,314 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9B5ECE-D3A4-4B45-93E0-031B0CFA00EA}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73ECE96-FA87-4266-B9F3-5425694BED8B}">
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.92949999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="6">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBB2FB6-8050-41C4-AD58-73C889586CF6}">
+  <dimension ref="A3:C18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Metrics_Report.xlsx
+++ b/Test_Metrics_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="8_{6BE69F94-80E6-4910-9635-85D5D344FF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E01BB2C2-3D38-4084-9BFA-AE16202D2CB2}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="8_{6BE69F94-80E6-4910-9635-85D5D344FF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3787E21A-4BEB-42D3-A56E-6D809F8C48E3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CDF67B7-6A36-4AA6-A051-AE130BB5BD9A}"/>
   </bookViews>
@@ -223,18 +223,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -245,6 +241,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -583,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73ECE96-FA87-4266-B9F3-5425694BED8B}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,175 +598,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="9">
         <v>0.92949999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="9">
         <v>7.0400000000000004E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I28" s="3"/>
+      <c r="I28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -775,120 +778,123 @@
   <dimension ref="A3:C18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A28"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="70.140625" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>6</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>0</v>
       </c>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
